--- a/s27power.xlsx
+++ b/s27power.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python37\Anaconda3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Total</t>
   </si>
@@ -117,21 +117,6 @@
   </si>
   <si>
     <t>s27 normal circuits</t>
-  </si>
-  <si>
-    <t>s27</t>
-  </si>
-  <si>
-    <t>combinational trojan</t>
-  </si>
-  <si>
-    <t>GT8</t>
-  </si>
-  <si>
-    <t>I3</t>
-  </si>
-  <si>
-    <t>I2</t>
   </si>
   <si>
     <t>Net load</t>
@@ -452,28 +437,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -487,12 +464,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -503,37 +480,8 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -550,7 +498,7 @@
         <v>1.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -566,23 +514,8 @@
       <c r="E8">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>1.2030000000000001</v>
-      </c>
-      <c r="J8">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="K8">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="L8">
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -598,23 +531,8 @@
       <c r="E9">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="J9">
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="K9">
-        <v>0.61929999999999996</v>
-      </c>
-      <c r="L9">
-        <v>8.2500000000000004E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -630,23 +548,8 @@
       <c r="E10">
         <v>6.3E-3</v>
       </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J10">
-        <v>0.59699999999999998</v>
-      </c>
-      <c r="K10">
-        <v>0.64029999999999998</v>
-      </c>
-      <c r="L10">
-        <v>3.8199999999999998E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -662,23 +565,8 @@
       <c r="E11">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J11">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="K11">
-        <v>0.61450000000000005</v>
-      </c>
-      <c r="L11">
-        <v>3.6600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -694,23 +582,8 @@
       <c r="E12">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J12">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="K12">
-        <v>0.61450000000000005</v>
-      </c>
-      <c r="L12">
-        <v>3.6600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -726,23 +599,8 @@
       <c r="E13">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J13">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="K13">
-        <v>0.61450000000000005</v>
-      </c>
-      <c r="L13">
-        <v>3.6600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -758,23 +616,8 @@
       <c r="E14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J14">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="K14">
-        <v>0.60329999999999995</v>
-      </c>
-      <c r="L14">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -790,23 +633,8 @@
       <c r="E15">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J15">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="K15">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="L15">
-        <v>3.5400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -822,23 +650,8 @@
       <c r="E16">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J16">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="K16">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="L16">
-        <v>3.5400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -854,23 +667,8 @@
       <c r="E17">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J17">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="K17">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="L17">
-        <v>3.5400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -886,23 +684,8 @@
       <c r="E18">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="H18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J18">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="K18">
-        <v>0.46910000000000002</v>
-      </c>
-      <c r="L18">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -918,23 +701,8 @@
       <c r="E19">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="H19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J19">
-        <v>0.879</v>
-      </c>
-      <c r="K19">
-        <v>0.31559999999999999</v>
-      </c>
-      <c r="L19">
-        <v>1.8800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -950,23 +718,8 @@
       <c r="E20">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="J20">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="K20">
-        <v>6.9099999999999995E-2</v>
-      </c>
-      <c r="L20">
-        <v>1.46E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -982,23 +735,8 @@
       <c r="E21">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="H21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="J21">
-        <v>0.5</v>
-      </c>
-      <c r="K21">
-        <v>0.1</v>
-      </c>
-      <c r="L21">
-        <v>1.3299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1014,23 +752,8 @@
       <c r="E22">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J22">
-        <v>0.5</v>
-      </c>
-      <c r="K22">
-        <v>0.1</v>
-      </c>
-      <c r="L22">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1046,23 +769,8 @@
       <c r="E23">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J23">
-        <v>0.5</v>
-      </c>
-      <c r="K23">
-        <v>0.1</v>
-      </c>
-      <c r="L23">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1078,23 +786,8 @@
       <c r="E24">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J24">
-        <v>0.5</v>
-      </c>
-      <c r="K24">
-        <v>0.1</v>
-      </c>
-      <c r="L24">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1110,23 +803,8 @@
       <c r="E25">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="H25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J25">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="K25">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="L25">
-        <v>5.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1142,23 +820,8 @@
       <c r="E26">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J26">
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="K26">
-        <v>6.9099999999999995E-2</v>
-      </c>
-      <c r="L26">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1174,23 +837,8 @@
       <c r="E27">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="H27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J27">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="K27">
-        <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="L27">
-        <v>3.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1205,89 +853,6 @@
       </c>
       <c r="E28">
         <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="H28" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J28">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="K28">
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="L28">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J29">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="K29">
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="L29">
-        <v>8.9999999999999998E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J30">
-        <v>0.26</v>
-      </c>
-      <c r="K30">
-        <v>1.2E-2</v>
-      </c>
-      <c r="L30">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H31" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J31">
-        <v>0.74</v>
-      </c>
-      <c r="K31">
-        <v>1.2E-2</v>
-      </c>
-      <c r="L31">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H32" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="J32">
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="K32">
-        <v>1.04E-2</v>
-      </c>
-      <c r="L32">
-        <v>5.9999999999999995E-4</v>
       </c>
     </row>
   </sheetData>
